--- a/UT03_-_PDI01_-_Martin_Rose.xlsx
+++ b/UT03_-_PDI01_-_Martin_Rose.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Machine_Learning--2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95A7883-6EF8-48D1-AC6D-3796009DB83E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B73F15-E279-40EC-B894-9B59BEF84082}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="5085" xr2:uid="{4CC59884-2C21-4E5C-BB70-83EAA2A0C1C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="unaHoja" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -480,15 +480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -521,6 +512,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -533,8 +538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,16 +545,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4084,7 +4084,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
-      <c r="B11" s="33">
+      <c r="B11" s="30">
         <f>AVERAGE(B3:B8)</f>
         <v>3.5</v>
       </c>
@@ -4099,20 +4099,20 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14"/>
-      <c r="B14" s="35">
+      <c r="B14" s="32">
         <f t="shared" ref="B14:B19" si="0">B3-$B$11</f>
         <v>-2.5</v>
       </c>
@@ -4120,15 +4120,15 @@
         <f t="shared" ref="C14:C19" si="1">C3-$C$11</f>
         <v>-1.6666666666666665</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="44">
         <f>B14*C14</f>
         <v>4.1666666666666661</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15"/>
-      <c r="B15" s="34">
+      <c r="B15" s="31">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
@@ -4136,15 +4136,15 @@
         <f t="shared" si="1"/>
         <v>-0.66666666666666652</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="46">
         <f t="shared" ref="D15:D19" si="2">B15*C15</f>
         <v>0.33333333333333326</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16"/>
-      <c r="B16" s="34">
+      <c r="B16" s="31">
         <f t="shared" si="0"/>
         <v>-1.5</v>
       </c>
@@ -4152,15 +4152,15 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333348</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="46">
         <f t="shared" si="2"/>
         <v>-0.50000000000000022</v>
       </c>
-      <c r="E16" s="44"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17"/>
-      <c r="B17" s="34">
+      <c r="B17" s="31">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -4168,15 +4168,15 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333348</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="46">
         <f t="shared" si="2"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="E17" s="44"/>
+      <c r="E17" s="47"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18"/>
-      <c r="B18" s="34">
+      <c r="B18" s="31">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -4184,39 +4184,39 @@
         <f t="shared" si="1"/>
         <v>-0.66666666666666652</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="46">
         <f t="shared" si="2"/>
         <v>-1.6666666666666663</v>
       </c>
-      <c r="E18" s="44"/>
+      <c r="E18" s="47"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
-      <c r="B19" s="45">
+      <c r="B19" s="38">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="39">
         <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="48">
         <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="E19" s="48"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20"/>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51">
+      <c r="C20" s="43"/>
+      <c r="D20" s="40">
         <f>SUM(D14:D19)</f>
         <v>6</v>
       </c>
-      <c r="E20" s="52"/>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
@@ -4230,49 +4230,49 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23"/>
-      <c r="B23" s="40">
+      <c r="B23" s="37">
         <f>B14^2</f>
         <v>6.25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24"/>
-      <c r="B24" s="38">
+      <c r="B24" s="35">
         <f t="shared" ref="B24:B27" si="3">B15^2</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25"/>
-      <c r="B25" s="38">
+      <c r="B25" s="35">
         <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26"/>
-      <c r="B26" s="38">
+      <c r="B26" s="35">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27"/>
-      <c r="B27" s="38">
+      <c r="B27" s="35">
         <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28"/>
-      <c r="B28" s="38">
+      <c r="B28" s="35">
         <f>B19^2</f>
         <v>2.25</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29"/>
-      <c r="B29" s="39">
+      <c r="B29" s="36">
         <f>SUM(B23:B28)</f>
         <v>17.5</v>
       </c>
@@ -4287,25 +4287,25 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32"/>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="20">
         <f>D20/B29</f>
         <v>0.34285714285714286</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34"/>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="23">
         <f>C11-(C32*B11)</f>
         <v>1.4666666666666666</v>
       </c>
@@ -4449,11 +4449,11 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44"/>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
       <c r="E44" s="13">
         <f>SQRT((SUM(E38:E43)/6))</f>
         <v>1.1012258681571245</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47"/>
-      <c r="B47" s="29">
+      <c r="B47" s="26">
         <v>0</v>
       </c>
       <c r="C47" s="14">
@@ -4484,17 +4484,17 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48"/>
-      <c r="B48" s="30">
+      <c r="B48" s="27">
         <v>0.1</v>
       </c>
       <c r="C48" s="15">
-        <f t="shared" ref="C48:C111" si="8">$C$34+($C$32*B48)</f>
+        <f t="shared" ref="C48:C71" si="8">$C$34+($C$32*B48)</f>
         <v>1.5009523809523808</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="B49" s="30">
+      <c r="B49" s="27">
         <v>0.2</v>
       </c>
       <c r="C49" s="15">
@@ -4504,7 +4504,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50"/>
-      <c r="B50" s="30">
+      <c r="B50" s="27">
         <v>0.3</v>
       </c>
       <c r="C50" s="15">
@@ -4514,7 +4514,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51"/>
-      <c r="B51" s="30">
+      <c r="B51" s="27">
         <v>0.4</v>
       </c>
       <c r="C51" s="15">
@@ -4524,7 +4524,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52"/>
-      <c r="B52" s="30">
+      <c r="B52" s="27">
         <v>0.5</v>
       </c>
       <c r="C52" s="15">
@@ -4534,7 +4534,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53"/>
-      <c r="B53" s="30">
+      <c r="B53" s="27">
         <v>0.6</v>
       </c>
       <c r="C53" s="15">
@@ -4544,7 +4544,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54"/>
-      <c r="B54" s="30">
+      <c r="B54" s="27">
         <v>0.7</v>
       </c>
       <c r="C54" s="15">
@@ -4554,7 +4554,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55"/>
-      <c r="B55" s="30">
+      <c r="B55" s="27">
         <v>0.8</v>
       </c>
       <c r="C55" s="15">
@@ -4564,7 +4564,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56"/>
-      <c r="B56" s="30">
+      <c r="B56" s="27">
         <v>0.9</v>
       </c>
       <c r="C56" s="15">
@@ -4574,7 +4574,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57"/>
-      <c r="B57" s="30">
+      <c r="B57" s="27">
         <v>1</v>
       </c>
       <c r="C57" s="15">
@@ -4584,7 +4584,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58"/>
-      <c r="B58" s="30">
+      <c r="B58" s="27">
         <v>1.1000000000000001</v>
       </c>
       <c r="C58" s="15">
@@ -4594,7 +4594,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59"/>
-      <c r="B59" s="30">
+      <c r="B59" s="27">
         <v>1.2</v>
       </c>
       <c r="C59" s="15">
@@ -4604,7 +4604,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60"/>
-      <c r="B60" s="30">
+      <c r="B60" s="27">
         <v>1.3</v>
       </c>
       <c r="C60" s="15">
@@ -4614,7 +4614,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61"/>
-      <c r="B61" s="30">
+      <c r="B61" s="27">
         <v>1.4</v>
       </c>
       <c r="C61" s="15">
@@ -4624,7 +4624,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62"/>
-      <c r="B62" s="30">
+      <c r="B62" s="27">
         <v>1.5</v>
       </c>
       <c r="C62" s="15">
@@ -4634,7 +4634,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63"/>
-      <c r="B63" s="30">
+      <c r="B63" s="27">
         <v>1.6</v>
       </c>
       <c r="C63" s="15">
@@ -4644,7 +4644,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64"/>
-      <c r="B64" s="30">
+      <c r="B64" s="27">
         <v>1.7</v>
       </c>
       <c r="C64" s="15">
@@ -4654,7 +4654,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65"/>
-      <c r="B65" s="30">
+      <c r="B65" s="27">
         <v>1.8</v>
       </c>
       <c r="C65" s="15">
@@ -4664,7 +4664,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66"/>
-      <c r="B66" s="30">
+      <c r="B66" s="27">
         <v>1.9</v>
       </c>
       <c r="C66" s="15">
@@ -4674,7 +4674,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67"/>
-      <c r="B67" s="30">
+      <c r="B67" s="27">
         <v>2</v>
       </c>
       <c r="C67" s="15">
@@ -4684,7 +4684,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68"/>
-      <c r="B68" s="30">
+      <c r="B68" s="27">
         <v>2.1</v>
       </c>
       <c r="C68" s="15">
@@ -4694,7 +4694,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69"/>
-      <c r="B69" s="30">
+      <c r="B69" s="27">
         <v>2.2000000000000002</v>
       </c>
       <c r="C69" s="15">
@@ -4704,7 +4704,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70"/>
-      <c r="B70" s="30">
+      <c r="B70" s="27">
         <v>2.2999999999999998</v>
       </c>
       <c r="C70" s="15">
@@ -4714,7 +4714,7 @@
     </row>
     <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71"/>
-      <c r="B71" s="31">
+      <c r="B71" s="28">
         <v>2.4</v>
       </c>
       <c r="C71" s="16">
@@ -5008,6 +5008,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B44:D44"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D14:E14"/>
@@ -5016,7 +5017,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B44:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
